--- a/Oferta/Plantas hidro.xlsx
+++ b/Oferta/Plantas hidro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Switch UH\BDLP_nov 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Investigacion andes-EDF/Switch/Sin título/Oferta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E026E51-A2EF-4279-BB01-8F57260608D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF6E87-3A64-9E40-B8D2-DCD0AB8BB71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78A05AAE-B943-4769-A182-514634029CEF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{78A05AAE-B943-4769-A182-514634029CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="chidroco" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'chidroco'!$A$1:$DK$74</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterate="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -620,7 +620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,12 +629,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -649,8 +655,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,7 +934,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1225,108 +1232,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D7154B-2E64-44A2-A5F6-F68A7C988F8D}">
   <dimension ref="A1:DK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="67" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="67" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="6.5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="9" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="9" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="100" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="100" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115">
+    <row r="1" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1347,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1673,7 +1681,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:115">
+    <row r="2" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:115">
+    <row r="3" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>125</v>
       </c>
@@ -2355,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:115">
+    <row r="4" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102</v>
       </c>
@@ -2702,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:115">
+    <row r="5" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>103</v>
       </c>
@@ -3043,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:115">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -3387,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:115">
+    <row r="7" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -3722,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:115">
+    <row r="8" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -4063,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:115">
+    <row r="9" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>107</v>
       </c>
@@ -4404,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:115">
+    <row r="10" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>108</v>
       </c>
@@ -4745,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:115">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>109</v>
       </c>
@@ -5086,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:115">
+    <row r="12" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>110</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:115">
+    <row r="13" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>111</v>
       </c>
@@ -5771,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:115">
+    <row r="14" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>112</v>
       </c>
@@ -6115,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:115">
+    <row r="15" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>113</v>
       </c>
@@ -6459,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:115">
+    <row r="16" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>114</v>
       </c>
@@ -6803,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:115">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>115</v>
       </c>
@@ -7150,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:115">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>201</v>
       </c>
@@ -7494,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:115">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>202</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:115">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>203</v>
       </c>
@@ -8182,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:115">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>204</v>
       </c>
@@ -8526,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:115">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>205</v>
       </c>
@@ -8867,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:115">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>206</v>
       </c>
@@ -9208,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:115">
+    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>207</v>
       </c>
@@ -9549,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:115">
+    <row r="25" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>208</v>
       </c>
@@ -9890,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:115">
+    <row r="26" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>209</v>
       </c>
@@ -10225,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:115">
+    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>210</v>
       </c>
@@ -10569,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:115">
+    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>213</v>
       </c>
@@ -10904,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:115">
+    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>214</v>
       </c>
@@ -11248,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:115">
+    <row r="30" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>215</v>
       </c>
@@ -11592,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:115">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>301</v>
       </c>
@@ -11936,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:115">
+    <row r="32" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>302</v>
       </c>
@@ -12280,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:115">
+    <row r="33" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>303</v>
       </c>
@@ -12621,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:115">
+    <row r="34" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>304</v>
       </c>
@@ -12965,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:115">
+    <row r="35" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>305</v>
       </c>
@@ -13306,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:115">
+    <row r="36" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>306</v>
       </c>
@@ -13647,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:115">
+    <row r="37" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>307</v>
       </c>
@@ -13991,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:115">
+    <row r="38" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>308</v>
       </c>
@@ -14335,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:115">
+    <row r="39" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>314</v>
       </c>
@@ -14679,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:115">
+    <row r="40" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>311</v>
       </c>
@@ -15020,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:115">
+    <row r="41" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>315</v>
       </c>
@@ -15364,7 +15372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:115">
+    <row r="42" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>313</v>
       </c>
@@ -15699,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:115">
+    <row r="43" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>312</v>
       </c>
@@ -16040,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:115">
+    <row r="44" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>309</v>
       </c>
@@ -16384,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:115">
+    <row r="45" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>310</v>
       </c>
@@ -16719,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:115">
+    <row r="46" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>388</v>
       </c>
@@ -17063,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:115">
+    <row r="47" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>399</v>
       </c>
@@ -17410,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:115">
+    <row r="48" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>400</v>
       </c>
@@ -17751,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:115">
+    <row r="49" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>401</v>
       </c>
@@ -18092,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:115">
+    <row r="50" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>402</v>
       </c>
@@ -18433,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:115">
+    <row r="51" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>403</v>
       </c>
@@ -18768,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:115">
+    <row r="52" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>404</v>
       </c>
@@ -19106,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:115">
+    <row r="53" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>405</v>
       </c>
@@ -19441,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:115">
+    <row r="54" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>408</v>
       </c>
@@ -19776,7 +19784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:115">
+    <row r="55" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>409</v>
       </c>
@@ -20120,7 +20128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:115">
+    <row r="56" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>410</v>
       </c>
@@ -20455,7 +20463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:115">
+    <row r="57" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>412</v>
       </c>
@@ -20790,7 +20798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:115">
+    <row r="58" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>414</v>
       </c>
@@ -21134,7 +21142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:115">
+    <row r="59" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>499</v>
       </c>
@@ -21469,7 +21477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:115">
+    <row r="60" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>500</v>
       </c>
@@ -21810,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:115">
+    <row r="61" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>501</v>
       </c>
@@ -22151,7 +22159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:115">
+    <row r="62" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>502</v>
       </c>
@@ -22495,7 +22503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:115">
+    <row r="63" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>503</v>
       </c>
@@ -22839,7 +22847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:115">
+    <row r="64" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>504</v>
       </c>
@@ -23174,7 +23182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:115">
+    <row r="65" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>505</v>
       </c>
@@ -23518,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:115">
+    <row r="66" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>506</v>
       </c>
@@ -23853,7 +23861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:115">
+    <row r="67" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>508</v>
       </c>
@@ -24188,7 +24196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:115">
+    <row r="68" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>509</v>
       </c>
@@ -24523,7 +24531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:115">
+    <row r="69" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>510</v>
       </c>
@@ -24870,7 +24878,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:115">
+    <row r="70" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>511</v>
       </c>
@@ -25205,7 +25213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:115">
+    <row r="71" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>507</v>
       </c>
@@ -25552,7 +25560,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:115">
+    <row r="72" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>512</v>
       </c>
@@ -25896,7 +25904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:115">
+    <row r="73" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>520</v>
       </c>
@@ -26231,7 +26239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:115">
+    <row r="74" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>522</v>
       </c>
@@ -26587,21 +26595,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C92F77D51DB34BB66DB547BA261888" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="036d0ed6745d5cb6fc93e88a90c24f29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3901be2b-e0aa-425f-8ecd-05b022f3c304" xmlns:ns3="1d72c402-e5ab-4c37-8652-a8939ba1b122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8e2230f21ddac050465166b7244a911" ns2:_="" ns3:_="">
     <xsd:import namespace="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
@@ -26766,18 +26759,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F174C1-4B8B-4B8C-A556-24826C92693B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F174C1-4B8B-4B8C-A556-24826C92693B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C042A6-A359-47B2-BFED-34B5FFE409FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11D2276-4D30-407E-B528-712ACDCE91C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
+    <ds:schemaRef ds:uri="1d72c402-e5ab-4c37-8652-a8939ba1b122"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F5D854C-31FB-4592-97A7-97594145190E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F5D854C-31FB-4592-97A7-97594145190E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11D2276-4D30-407E-B528-712ACDCE91C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C042A6-A359-47B2-BFED-34B5FFE409FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>